--- a/biology/Botanique/Knobbed_Russet/Knobbed_Russet.xlsx
+++ b/biology/Botanique/Knobbed_Russet/Knobbed_Russet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Knobbed Russet est un cultivar de pommier domestique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Sussex, en Angleterre en 1819, la Knobbed Russet a été exposée pour la première fois en 1820[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Sussex, en Angleterre en 1819, la Knobbed Russet a été exposée pour la première fois en 1820.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Knobbed Russet,
 Old Maid's,
 Old Maids, Winter,
 Winter Apple,
-Winter Russet[1].</t>
+Winter Russet.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grosse pomme vert et jaune avec une peau roux noir, rugueuse et très irrégulière, verruqueuse et noueuse, qui ressemble plus à une pomme de terre qu'à une pomme. Sa chair est crémeuse, tendre et sucrée.
 </t>
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont récoltés la seconde quinzaine d'octobre et se conservent d'octobre à février-mars.
 </t>
